--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Speed Cent.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Speed Cent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.09558</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.09415</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.09557</t>
+          <t>1.09403</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.09414</t>
+          <t>1.09312</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.09556</t>
+          <t>1.09402</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.09414</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.09559</t>
+          <t>1.09403</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.09415</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.09559</t>
+          <t>1.09401</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.09415</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -713,27 +713,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.09235</t>
+          <t>1.0945</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.09135</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -755,27 +755,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.0923</t>
+          <t>1.09445</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.09132</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.09231</t>
+          <t>1.09445</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.09128</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -839,27 +839,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.09231</t>
+          <t>1.09445</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.09135</t>
+          <t>1.09311</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -881,27 +881,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.09231</t>
+          <t>1.09493</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.09139</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -923,27 +923,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.23 16:18</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.09031</t>
+          <t>1.09444</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09311</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -965,27 +965,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.23 16:18</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09489</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09303</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -1007,27 +1007,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.24 02:33</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.09033</t>
+          <t>1.09489</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09303</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.24 02:33</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.09028</t>
+          <t>1.09489</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09303</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -1091,22 +1091,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.24 02:33</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.09033</t>
+          <t>1.0953</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09461</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1133,27 +1133,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.23 03:33</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.0899</t>
+          <t>1.09531</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.08898</t>
+          <t>1.09464</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -1175,27 +1175,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.23 03:33</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09529</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.08899</t>
+          <t>1.09465</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1217,27 +1217,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.23 03:33</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.08982</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.08896</t>
+          <t>1.09465</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.23 03:46</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.08998</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.08896</t>
+          <t>1.09465</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1301,27 +1301,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.23 03:46</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.08998</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.08896</t>
+          <t>1.09461</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -1343,27 +1343,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09558</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09415</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09557</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09414</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -1427,27 +1427,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09556</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09414</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09559</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09415</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -1511,27 +1511,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.23 10:43</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.09125</t>
+          <t>1.09559</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09415</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -1553,22 +1553,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.23 10:43</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.09125</t>
+          <t>1.09235</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09135</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1595,22 +1595,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.23 10:43</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.09125</t>
+          <t>1.0923</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09132</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1637,27 +1637,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.23 11:13</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.09173</t>
+          <t>1.09231</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09128</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -1679,27 +1679,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.23 11:14</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.09173</t>
+          <t>1.09231</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09135</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -1721,22 +1721,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.23 11:13</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.09173</t>
+          <t>1.09231</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09139</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1763,27 +1763,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.23 11:14</t>
+          <t>2023.11.23 16:18</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.09172</t>
+          <t>1.09031</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.23 11:14</t>
+          <t>2023.11.23 16:18</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.09171</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1847,22 +1847,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.23 10:03</t>
+          <t>2023.11.24 02:33</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.09164</t>
+          <t>1.09033</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.23 10:12</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.09092</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1889,27 +1889,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.23 10:03</t>
+          <t>2023.11.24 02:33</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.09164</t>
+          <t>1.09028</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.23 10:12</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.09092</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1931,22 +1931,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.23 10:03</t>
+          <t>2023.11.24 02:33</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.09166</t>
+          <t>1.09033</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.23 10:12</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.09092</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1973,22 +1973,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.23 03:33</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.09237</t>
+          <t>1.0899</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.09149</t>
+          <t>1.08898</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.23 03:33</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.09238</t>
+          <t>1.08983</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.09144</t>
+          <t>1.08899</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.23 03:33</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.0924</t>
+          <t>1.08982</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.09144</t>
+          <t>1.08896</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2099,22 +2099,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.23 03:46</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.09241</t>
+          <t>1.08998</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.09143</t>
+          <t>1.08896</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.23 03:46</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.09241</t>
+          <t>1.08998</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.09143</t>
+          <t>1.08896</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2183,27 +2183,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.08603</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2225,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.08605</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.08739</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.08601</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2309,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.08601</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -2351,27 +2351,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.23 10:43</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.08692</t>
+          <t>1.09125</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.08605</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -2393,27 +2393,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.23 10:43</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.08692</t>
+          <t>1.09125</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.08605</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -2435,27 +2435,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 10:43</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.08742</t>
+          <t>1.09125</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.08598</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -2477,27 +2477,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 11:13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.08741</t>
+          <t>1.09173</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2519,27 +2519,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.23 11:14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.08838</t>
+          <t>1.09173</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.08766</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2561,27 +2561,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.23 11:13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.08841</t>
+          <t>1.09173</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.08759</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2603,27 +2603,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.23 11:14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.08843</t>
+          <t>1.09172</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.08759</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2645,27 +2645,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.23 11:14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.08844</t>
+          <t>1.09171</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.08763</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2687,27 +2687,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.23 10:03</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.08844</t>
+          <t>1.09164</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.23 10:12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.08759</t>
+          <t>1.09092</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2729,27 +2729,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.23 10:03</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.08852</t>
+          <t>1.09164</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 10:12</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.08766</t>
+          <t>1.09092</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2771,27 +2771,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.23 10:03</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.09166</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 10:12</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.08765</t>
+          <t>1.09092</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2813,22 +2813,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.09237</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.08764</t>
+          <t>1.09149</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2855,22 +2855,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.09238</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.08762</t>
+          <t>1.09144</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2897,22 +2897,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.0924</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.08761</t>
+          <t>1.09144</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2939,27 +2939,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.09038</t>
+          <t>1.09241</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.22 15:05</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.08863</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0,18 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -2981,27 +2981,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.09038</t>
+          <t>1.09241</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.08866</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -3023,27 +3023,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.09039</t>
+          <t>1.08691</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.08868</t>
+          <t>1.08603</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -3065,27 +3065,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.09039</t>
+          <t>1.08691</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.08868</t>
+          <t>1.08605</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -3107,27 +3107,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.09139</t>
+          <t>1.08739</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.09046</t>
+          <t>1.08601</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.0914</t>
+          <t>1.08691</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.0905</t>
+          <t>1.08601</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3191,22 +3191,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.0914</t>
+          <t>1.08692</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.09047</t>
+          <t>1.08605</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3233,22 +3233,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.0914</t>
+          <t>1.08692</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.09047</t>
+          <t>1.08605</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3275,27 +3275,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.09151</t>
+          <t>1.08742</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.09052</t>
+          <t>1.08598</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3317,27 +3317,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.09142</t>
+          <t>1.08741</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.09052</t>
+          <t>1.086</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3359,27 +3359,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.09151</t>
+          <t>1.08838</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.09052</t>
+          <t>1.08766</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -3401,27 +3401,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.09152</t>
+          <t>1.08841</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.0905</t>
+          <t>1.08759</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.09163</t>
+          <t>1.08843</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.09048</t>
+          <t>1.08759</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0,12 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3485,27 +3485,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.09164</t>
+          <t>1.08844</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.0905</t>
+          <t>1.08763</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3527,27 +3527,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.08963</t>
+          <t>1.08844</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.0886</t>
+          <t>1.08759</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -3569,27 +3569,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.08963</t>
+          <t>1.08852</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.08859</t>
+          <t>1.08766</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -3611,27 +3611,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.08964</t>
+          <t>1.08856</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.08859</t>
+          <t>1.08765</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -3653,27 +3653,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.08964</t>
+          <t>1.08856</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.08852</t>
+          <t>1.08764</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -3695,27 +3695,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.08964</t>
+          <t>1.08856</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.08853</t>
+          <t>1.08762</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -3737,27 +3737,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.08856</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.0902</t>
+          <t>1.08761</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -3779,27 +3779,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.22 10:41</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09038</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.22 15:05</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.09021</t>
+          <t>1.08863</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,18 USD</t>
         </is>
       </c>
     </row>
@@ -3821,27 +3821,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.22 10:41</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09038</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.22 15:04</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.09021</t>
+          <t>1.08866</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -3863,27 +3863,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.22 10:41</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09039</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.22 15:04</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.09017</t>
+          <t>1.08868</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -3905,27 +3905,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.22 10:41</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09039</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.22 15:04</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.09021</t>
+          <t>1.08868</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -3947,27 +3947,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.22 14:20</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.09139</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.08985</t>
+          <t>1.09046</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-0,29 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -3989,27 +3989,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.22 14:20</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.08689</t>
+          <t>1.0914</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.08986</t>
+          <t>1.0905</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-0,30 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4031,27 +4031,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.22 14:20</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.08686</t>
+          <t>1.0914</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.0898</t>
+          <t>1.09047</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-0,29 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4073,27 +4073,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 14:20</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.09087</t>
+          <t>1.0914</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.08992</t>
+          <t>1.09047</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4115,22 +4115,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 14:27</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.0909</t>
+          <t>1.09151</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.08993</t>
+          <t>1.09052</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4157,27 +4157,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 14:20</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.09088</t>
+          <t>1.09142</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09052</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4199,27 +4199,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 14:27</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.09088</t>
+          <t>1.09151</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09052</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -4241,27 +4241,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 14:27</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.09089</t>
+          <t>1.09152</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.0905</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -4283,27 +4283,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 14:27</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.09089</t>
+          <t>1.09163</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09048</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,12 USD</t>
         </is>
       </c>
     </row>
@@ -4325,27 +4325,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 14:27</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.09156</t>
+          <t>1.09164</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 14:38</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.0905</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,11 USD</t>
         </is>
       </c>
     </row>
@@ -4367,27 +4367,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 07:34</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.0909</t>
+          <t>1.08963</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 09:51</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.0886</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -4409,27 +4409,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 07:34</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.09156</t>
+          <t>1.08963</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 09:51</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.08982</t>
+          <t>1.08859</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -4451,27 +4451,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 07:34</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.09156</t>
+          <t>1.08964</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 09:51</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.08982</t>
+          <t>1.08859</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,11 USD</t>
         </is>
       </c>
     </row>
@@ -4493,27 +4493,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.20 03:26</t>
+          <t>2023.11.22 07:34</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08964</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 09:51</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.08984</t>
+          <t>1.08852</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,11 USD</t>
         </is>
       </c>
     </row>
@@ -4535,27 +4535,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 07:34</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08964</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 09:51</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.08984</t>
+          <t>1.08853</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,11 USD</t>
         </is>
       </c>
     </row>
@@ -4577,27 +4577,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 08:35</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.091</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.22 02:29</t>
+          <t>2023.11.22 09:29</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.09118</t>
+          <t>1.0902</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0,04 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -4619,27 +4619,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.20 03:26</t>
+          <t>2023.11.22 08:35</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.091</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.22 02:29</t>
+          <t>2023.11.22 09:29</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.09117</t>
+          <t>1.09021</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0,04 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -4661,25 +4661,865 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1.09021</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1.09017</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1.09021</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1.08691</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1.08985</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-0,29 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1.08689</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1.08986</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-0,30 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1.08686</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1.0898</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-0,29 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1.09087</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1.08992</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1.08993</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1.09088</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1.09088</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1.09089</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.09089</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1.09156</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1.09156</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1.08982</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1.09156</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1.08982</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>2023.11.20 03:26</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1.08984</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1.08984</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:29</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1.09118</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0,04 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:26</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:29</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1.09117</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>0,04 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:26</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>1.09148</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>2023.11.22 02:29</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>1.09117</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>0,03 USD</t>
         </is>

--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Speed Cent.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Speed Cent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.09747</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.09309</t>
+          <t>1.09676</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.09403</t>
+          <t>1.09743</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.09312</t>
+          <t>1.09676</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.09402</t>
+          <t>1.09742</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.09309</t>
+          <t>1.09678</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.09403</t>
+          <t>1.09738</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.09308</t>
+          <t>1.09668</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.09401</t>
+          <t>1.0974</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.09308</t>
+          <t>1.09667</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -713,27 +713,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.0945</t>
+          <t>1.09753</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.09308</t>
+          <t>1.09669</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -755,27 +755,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.09445</t>
+          <t>1.09753</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.09309</t>
+          <t>1.09669</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.09445</t>
+          <t>1.09756</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.09309</t>
+          <t>1.09662</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -839,27 +839,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.09445</t>
+          <t>1.09756</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.09311</t>
+          <t>1.09658</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -881,27 +881,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.09493</t>
+          <t>1.09752</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.09308</t>
+          <t>1.09657</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -923,27 +923,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.09444</t>
+          <t>1.09751</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.09311</t>
+          <t>1.09657</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -965,27 +965,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.09489</t>
+          <t>1.09751</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.09303</t>
+          <t>1.09647</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -1007,27 +1007,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.09489</t>
+          <t>1.09816</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.09303</t>
+          <t>1.09646</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.09489</t>
+          <t>1.09812</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.09303</t>
+          <t>1.09646</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -1091,27 +1091,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.0953</t>
+          <t>1.09811</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.09461</t>
+          <t>1.09645</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -1133,27 +1133,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.09531</t>
+          <t>1.0981</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.09464</t>
+          <t>1.09656</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
@@ -1175,27 +1175,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.09529</t>
+          <t>1.09813</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.09465</t>
+          <t>1.09657</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -1217,27 +1217,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.09527</t>
+          <t>1.09843</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.09465</t>
+          <t>1.09765</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.09527</t>
+          <t>1.09845</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.09465</t>
+          <t>1.09764</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -1301,27 +1301,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.09527</t>
+          <t>1.09844</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.09461</t>
+          <t>1.09765</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -1343,27 +1343,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.09558</t>
+          <t>1.09844</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.09415</t>
+          <t>1.09764</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.09557</t>
+          <t>1.09846</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.09414</t>
+          <t>1.09763</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -1427,27 +1427,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.09556</t>
+          <t>1.09845</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.09414</t>
+          <t>1.09764</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.09559</t>
+          <t>1.0991</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.09415</t>
+          <t>1.09708</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -1511,27 +1511,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.09559</t>
+          <t>1.09909</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.09415</t>
+          <t>1.09709</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -1553,27 +1553,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.09235</t>
+          <t>1.09909</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.09135</t>
+          <t>1.09709</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -1595,27 +1595,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.0923</t>
+          <t>1.0991</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.09132</t>
+          <t>1.09709</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -1637,27 +1637,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.09231</t>
+          <t>1.09912</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.09128</t>
+          <t>1.09709</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -1679,27 +1679,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.09231</t>
+          <t>1.09967</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.09135</t>
+          <t>1.0971</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
@@ -1721,27 +1721,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.09231</t>
+          <t>1.09967</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.09139</t>
+          <t>1.0971</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
@@ -1763,27 +1763,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.23 16:18</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.09031</t>
+          <t>1.09959</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09711</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.23 16:18</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09959</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09711</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -1847,27 +1847,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.24 02:33</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.09033</t>
+          <t>1.10141</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.0998</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.24 02:33</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.09028</t>
+          <t>1.10138</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.0998</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -1931,27 +1931,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.24 02:33</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.09033</t>
+          <t>1.10138</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09979</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -1973,27 +1973,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.23 03:33</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.0899</t>
+          <t>1.10138</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.08898</t>
+          <t>1.09979</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -2015,27 +2015,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.23 03:33</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.10139</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.08899</t>
+          <t>1.09979</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.23 03:33</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.08982</t>
+          <t>1.09455</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.08896</t>
+          <t>1.09395</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2099,27 +2099,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.23 03:46</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.08998</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.08896</t>
+          <t>1.09396</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2141,27 +2141,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.23 03:46</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.08998</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.08896</t>
+          <t>1.09396</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2183,27 +2183,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09391</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2225,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09391</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09391</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2309,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09387</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2351,27 +2351,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.23 10:43</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.09125</t>
+          <t>1.09459</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09387</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2393,27 +2393,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.23 10:43</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.09125</t>
+          <t>1.09538</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2435,27 +2435,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.23 10:43</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.09125</t>
+          <t>1.0954</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2477,27 +2477,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.23 11:13</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.09173</t>
+          <t>1.09541</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2519,27 +2519,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.23 11:14</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.09173</t>
+          <t>1.0954</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2561,27 +2561,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.23 11:13</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.09173</t>
+          <t>1.09541</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2603,27 +2603,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.23 11:14</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.09172</t>
+          <t>1.09542</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09474</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2645,27 +2645,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.23 11:14</t>
+          <t>2023.11.28 03:07</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.09171</t>
+          <t>1.09555</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -2687,22 +2687,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.23 10:03</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.09164</t>
+          <t>1.09544</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.23 10:12</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.09092</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2729,27 +2729,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.23 10:03</t>
+          <t>2023.11.28 03:07</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.09164</t>
+          <t>1.09555</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.23 10:12</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.09092</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -2771,27 +2771,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.23 10:03</t>
+          <t>2023.11.28 03:07</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.09166</t>
+          <t>1.09555</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.23 10:12</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.09092</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -2813,22 +2813,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.09237</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.09149</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2855,22 +2855,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.09238</t>
+          <t>1.09403</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.09144</t>
+          <t>1.09312</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2897,27 +2897,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.0924</t>
+          <t>1.09402</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.09144</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2939,22 +2939,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.09241</t>
+          <t>1.09403</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.09143</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2981,27 +2981,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.09241</t>
+          <t>1.09401</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.09143</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -3023,27 +3023,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.0945</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.08603</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3065,27 +3065,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.09445</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.08605</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3107,22 +3107,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.08739</t>
+          <t>1.09445</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.08601</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3149,27 +3149,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.09445</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.08601</t>
+          <t>1.09311</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -3191,27 +3191,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.08692</t>
+          <t>1.09493</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.08605</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -3233,27 +3233,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.08692</t>
+          <t>1.09444</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.08605</t>
+          <t>1.09311</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -3275,27 +3275,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.08742</t>
+          <t>1.09489</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.08598</t>
+          <t>1.09303</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -3317,27 +3317,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.08741</t>
+          <t>1.09489</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>1.09303</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -3359,27 +3359,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.08838</t>
+          <t>1.09489</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.08766</t>
+          <t>1.09303</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -3401,27 +3401,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.08841</t>
+          <t>1.0953</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.08759</t>
+          <t>1.09461</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.08843</t>
+          <t>1.09531</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.08759</t>
+          <t>1.09464</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -3485,27 +3485,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.08844</t>
+          <t>1.09529</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.08763</t>
+          <t>1.09465</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -3527,27 +3527,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.08844</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.08759</t>
+          <t>1.09465</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -3569,27 +3569,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.08852</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.08766</t>
+          <t>1.09465</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -3611,27 +3611,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.08765</t>
+          <t>1.09461</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -3653,27 +3653,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.09558</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.08764</t>
+          <t>1.09415</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3695,27 +3695,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.09557</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.08762</t>
+          <t>1.09414</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3737,27 +3737,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.09556</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.08761</t>
+          <t>1.09414</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3779,27 +3779,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.09038</t>
+          <t>1.09559</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.22 15:05</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.08863</t>
+          <t>1.09415</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0,18 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3821,27 +3821,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.09038</t>
+          <t>1.09559</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.08866</t>
+          <t>1.09415</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -3863,27 +3863,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.09039</t>
+          <t>1.09235</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.08868</t>
+          <t>1.09135</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -3905,27 +3905,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.09039</t>
+          <t>1.0923</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.08868</t>
+          <t>1.09132</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -3947,27 +3947,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.09139</t>
+          <t>1.09231</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.09046</t>
+          <t>1.09128</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -3989,27 +3989,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.0914</t>
+          <t>1.09231</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.0905</t>
+          <t>1.09135</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -4031,22 +4031,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.0914</t>
+          <t>1.09231</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.09047</t>
+          <t>1.09139</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4073,27 +4073,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.23 16:18</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.0914</t>
+          <t>1.09031</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.09047</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -4115,27 +4115,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.23 16:18</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.09151</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.09052</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -4157,27 +4157,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.24 02:33</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.09142</t>
+          <t>1.09033</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.09052</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -4199,27 +4199,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.24 02:33</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.09151</t>
+          <t>1.09028</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.09052</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -4241,27 +4241,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.24 02:33</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.09152</t>
+          <t>1.09033</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.0905</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -4283,27 +4283,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.23 03:33</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.09163</t>
+          <t>1.0899</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.09048</t>
+          <t>1.08898</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0,12 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4325,27 +4325,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.23 03:33</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.09164</t>
+          <t>1.08983</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.0905</t>
+          <t>1.08899</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -4367,27 +4367,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 03:33</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.08963</t>
+          <t>1.08982</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.0886</t>
+          <t>1.08896</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4409,22 +4409,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 03:46</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.08963</t>
+          <t>1.08998</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.08859</t>
+          <t>1.08896</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4451,27 +4451,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 03:46</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.08964</t>
+          <t>1.08998</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.08859</t>
+          <t>1.08896</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -4493,27 +4493,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.08964</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.08852</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -4535,27 +4535,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.08964</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.08853</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -4577,27 +4577,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.0902</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -4619,27 +4619,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.09021</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -4661,27 +4661,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.23 10:43</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09125</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.09021</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -4703,27 +4703,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.23 10:43</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09125</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.09017</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -4745,27 +4745,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.23 10:43</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09125</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1.09021</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -4787,27 +4787,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.23 11:13</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.09173</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1.08985</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>-0,29 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4829,27 +4829,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.23 11:14</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.08689</t>
+          <t>1.09173</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1.08986</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>-0,30 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4871,27 +4871,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.23 11:13</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1.08686</t>
+          <t>1.09173</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1.0898</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>-0,29 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4913,27 +4913,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.23 11:14</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.09087</t>
+          <t>1.09172</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1.08992</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4955,27 +4955,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.23 11:14</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.0909</t>
+          <t>1.09171</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.08993</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.23 10:03</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1.09088</t>
+          <t>1.09164</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 10:12</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09092</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -5039,27 +5039,27 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.23 10:03</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1.09088</t>
+          <t>1.09164</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 10:12</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09092</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -5081,27 +5081,27 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.23 10:03</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.09089</t>
+          <t>1.09166</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 10:12</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09092</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -5123,27 +5123,27 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.09089</t>
+          <t>1.09237</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09149</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -5165,27 +5165,27 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.09156</t>
+          <t>1.09238</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09144</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -5207,27 +5207,27 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.0909</t>
+          <t>1.0924</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09144</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -5249,27 +5249,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.09156</t>
+          <t>1.09241</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1.08982</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -5291,27 +5291,27 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.09156</t>
+          <t>1.09241</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1.08982</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -5333,27 +5333,27 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2023.11.20 03:26</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08691</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1.08984</t>
+          <t>1.08603</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -5375,27 +5375,27 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08691</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1.08984</t>
+          <t>1.08605</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -5417,27 +5417,27 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08739</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023.11.22 02:29</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1.09118</t>
+          <t>1.08601</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0,04 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -5459,27 +5459,27 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2023.11.20 03:26</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08691</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023.11.22 02:29</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1.09117</t>
+          <t>1.08601</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0,04 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -5501,25 +5501,2335 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1.08692</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1.08605</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1.08692</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:06</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>1.08605</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:16</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1.08742</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:06</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>1.08598</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>0,14 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:16</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1.08741</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:06</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>1.086</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>0,14 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:46</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1.08838</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:58</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>1.08766</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>0,07 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:46</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1.08841</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:58</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>1.08759</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:46</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1.08843</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:58</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>1.08759</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:46</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1.08844</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:58</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1.08763</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:46</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1.08844</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:58</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1.08759</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:50</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1.08852</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:16</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1.08766</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:50</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1.08856</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:16</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1.08765</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:50</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1.08856</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:16</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1.08764</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:50</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1.08856</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:16</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1.08762</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:50</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1.08856</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:16</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>1.08761</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:41</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1.09038</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1.08863</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>0,18 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:41</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1.09038</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>1.08866</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:41</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1.09039</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1.08868</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:41</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1.09039</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1.08868</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1.09139</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1.09046</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1.09047</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>1.09047</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1.09151</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1.09052</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1.09142</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>1.09052</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1.09151</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1.09052</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1.09152</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1.09163</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1.09048</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>0,12 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1.09164</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1.08963</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1.0886</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1.08963</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1.08859</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1.08964</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1.08859</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1.08964</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1.08852</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1.08964</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1.08853</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1.0902</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1.09021</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>1.09021</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1.09017</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1.09021</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1.08691</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1.08985</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>-0,29 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1.08689</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>1.08986</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>-0,30 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1.08686</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1.0898</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>-0,29 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1.09087</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>1.08992</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1.08993</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1.09088</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1.09088</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1.09089</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1.09089</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1.09156</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1.09156</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1.08982</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1.09156</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>1.08982</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>2023.11.20 03:26</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>1.08984</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>1.08984</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:29</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1.09118</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>0,04 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:26</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:29</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1.09117</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>0,04 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:26</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>1.09148</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>2023.11.22 02:29</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>1.09117</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>0,03 USD</t>
         </is>

--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Speed Cent.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Speed Cent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.29 16:58</t>
+          <t>2023.11.24 15:23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.09747</t>
+          <t>1.09224</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.29 17:18</t>
+          <t>2023.11.30 11:28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.09676</t>
+          <t>1.09145</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.29 16:58</t>
+          <t>2023.11.24 15:23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.09743</t>
+          <t>1.09223</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.29 17:18</t>
+          <t>2023.11.30 11:28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.09676</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.29 16:58</t>
+          <t>2023.11.24 15:23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.09742</t>
+          <t>1.09223</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.29 17:18</t>
+          <t>2023.11.30 11:28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.09678</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.29 16:58</t>
+          <t>2023.11.24 15:23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.09738</t>
+          <t>1.09222</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.29 17:18</t>
+          <t>2023.11.30 11:28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.09668</t>
+          <t>1.09141</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.29 16:58</t>
+          <t>2023.11.30 10:25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.0974</t>
+          <t>1.0933</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.29 17:18</t>
+          <t>2023.11.30 11:28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.09667</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -713,22 +713,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.28 15:43</t>
+          <t>2023.11.24 15:23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.09753</t>
+          <t>1.09222</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 11:28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.09669</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -755,27 +755,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.28 15:43</t>
+          <t>2023.11.30 10:25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.09753</t>
+          <t>1.0933</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 11:28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.09669</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.28 15:43</t>
+          <t>2023.11.30 10:25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.09756</t>
+          <t>1.0933</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 11:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.09662</t>
+          <t>1.09145</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -839,27 +839,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.28 15:43</t>
+          <t>2023.11.28 08:47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.09756</t>
+          <t>1.09384</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 09:40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.09658</t>
+          <t>1.09248</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -881,27 +881,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.28 15:43</t>
+          <t>2023.11.28 08:47</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.09752</t>
+          <t>1.09384</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 09:40</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.09657</t>
+          <t>1.09247</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -923,27 +923,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.28 15:43</t>
+          <t>2023.11.28 08:47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.09751</t>
+          <t>1.09376</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 09:40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.09657</t>
+          <t>1.09248</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -965,27 +965,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.28 15:43</t>
+          <t>2023.11.28 08:47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.09751</t>
+          <t>1.09376</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 09:40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.09647</t>
+          <t>1.09248</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -1007,27 +1007,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.29 15:32</t>
+          <t>2023.11.28 08:47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.09816</t>
+          <t>1.09376</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 09:40</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.09646</t>
+          <t>1.09248</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.29 15:32</t>
+          <t>2023.11.28 09:33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.09812</t>
+          <t>1.09451</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 09:38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.09646</t>
+          <t>1.09326</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -1091,27 +1091,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.29 15:32</t>
+          <t>2023.11.28 09:33</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.09811</t>
+          <t>1.09453</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 09:38</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.09645</t>
+          <t>1.09335</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,12 USD</t>
         </is>
       </c>
     </row>
@@ -1133,27 +1133,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.29 15:32</t>
+          <t>2023.11.28 09:33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.0981</t>
+          <t>1.0945</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 09:38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.09656</t>
+          <t>1.09336</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>0,11 USD</t>
         </is>
       </c>
     </row>
@@ -1175,27 +1175,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.29 15:32</t>
+          <t>2023.11.28 09:33</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.09813</t>
+          <t>1.0945</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.29 16:26</t>
+          <t>2023.11.30 09:37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.09657</t>
+          <t>1.09336</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0,16 USD</t>
+          <t>0,11 USD</t>
         </is>
       </c>
     </row>
@@ -1217,27 +1217,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.29 13:56</t>
+          <t>2023.11.28 09:33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.09843</t>
+          <t>1.09453</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.29 14:41</t>
+          <t>2023.11.30 09:37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.09765</t>
+          <t>1.09335</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,12 USD</t>
         </is>
       </c>
     </row>
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.29 13:56</t>
+          <t>2023.11.28 09:33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.09845</t>
+          <t>1.09449</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.29 14:41</t>
+          <t>2023.11.30 09:37</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.09764</t>
+          <t>1.09335</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,11 USD</t>
         </is>
       </c>
     </row>
@@ -1301,27 +1301,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.29 13:56</t>
+          <t>2023.11.28 11:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.09844</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.29 14:41</t>
+          <t>2023.11.30 09:25</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.09765</t>
+          <t>1.09468</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1343,27 +1343,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.29 13:56</t>
+          <t>2023.11.28 11:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.09844</t>
+          <t>1.09524</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.29 14:41</t>
+          <t>2023.11.30 09:25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.09764</t>
+          <t>1.09468</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.29 13:56</t>
+          <t>2023.11.28 11:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.09846</t>
+          <t>1.09524</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.29 14:41</t>
+          <t>2023.11.30 09:25</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.09763</t>
+          <t>1.09468</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1427,27 +1427,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.29 13:56</t>
+          <t>2023.11.28 11:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.09845</t>
+          <t>1.09523</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.29 14:41</t>
+          <t>2023.11.30 09:25</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.09764</t>
+          <t>1.09467</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.28 17:20</t>
+          <t>2023.11.28 11:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.0991</t>
+          <t>1.09523</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.29 11:34</t>
+          <t>2023.11.30 09:25</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.09708</t>
+          <t>1.09466</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0,20 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -1511,27 +1511,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.28 17:20</t>
+          <t>2023.11.28 11:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.09909</t>
+          <t>1.09532</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.29 11:34</t>
+          <t>2023.11.30 09:25</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.09709</t>
+          <t>1.0946</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0,20 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -1553,27 +1553,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.28 17:20</t>
+          <t>2023.11.28 11:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.09909</t>
+          <t>1.0953</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.29 11:34</t>
+          <t>2023.11.30 09:25</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.09709</t>
+          <t>1.0946</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0,20 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -1595,27 +1595,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.28 17:20</t>
+          <t>2023.11.28 14:28</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.0991</t>
+          <t>1.09616</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.29 11:34</t>
+          <t>2023.11.30 09:23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.09709</t>
+          <t>1.09512</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0,20 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -1637,27 +1637,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.28 17:20</t>
+          <t>2023.11.28 14:28</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.09912</t>
+          <t>1.09611</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.29 11:34</t>
+          <t>2023.11.30 09:23</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.09709</t>
+          <t>1.09514</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0,20 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -1679,27 +1679,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.29 05:25</t>
+          <t>2023.11.28 14:28</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.09967</t>
+          <t>1.09611</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.29 11:34</t>
+          <t>2023.11.30 09:23</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.0971</t>
+          <t>1.09514</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -1721,27 +1721,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.29 05:25</t>
+          <t>2023.11.28 14:28</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.09967</t>
+          <t>1.09607</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.29 11:34</t>
+          <t>2023.11.30 09:23</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.0971</t>
+          <t>1.09514</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0,26 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -1763,27 +1763,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.29 05:25</t>
+          <t>2023.11.28 14:28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.09959</t>
+          <t>1.09609</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.29 11:34</t>
+          <t>2023.11.30 09:23</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.09711</t>
+          <t>1.09514</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0,25 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.29 05:25</t>
+          <t>2023.11.28 14:28</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.09959</t>
+          <t>1.09609</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.29 11:34</t>
+          <t>2023.11.30 09:23</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.09711</t>
+          <t>1.09515</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0,25 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -1847,27 +1847,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.29 02:33</t>
+          <t>2023.11.28 14:28</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.10141</t>
+          <t>1.0961</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.29 05:25</t>
+          <t>2023.11.30 09:23</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.0998</t>
+          <t>1.09515</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0,16 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.29 02:33</t>
+          <t>2023.11.30 02:35</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.10138</t>
+          <t>1.09758</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.29 05:25</t>
+          <t>2023.11.30 09:18</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.0998</t>
+          <t>1.09589</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0,16 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -1931,27 +1931,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.29 02:33</t>
+          <t>2023.11.30 02:35</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.10138</t>
+          <t>1.09757</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.29 05:25</t>
+          <t>2023.11.30 09:18</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.09979</t>
+          <t>1.09591</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0,16 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -1973,22 +1973,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.29 02:33</t>
+          <t>2023.11.30 02:35</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.10138</t>
+          <t>1.09753</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.29 05:25</t>
+          <t>2023.11.30 09:18</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.09979</t>
+          <t>1.0959</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.29 02:33</t>
+          <t>2023.11.30 02:35</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.10139</t>
+          <t>1.09757</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.29 05:25</t>
+          <t>2023.11.30 09:18</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.09979</t>
+          <t>1.0959</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0,16 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.28 07:55</t>
+          <t>2023.11.30 02:35</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.09455</t>
+          <t>1.09753</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.30 09:18</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.09395</t>
+          <t>1.0959</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -2099,27 +2099,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.28 07:55</t>
+          <t>2023.11.30 03:53</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.09456</t>
+          <t>1.09767</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.30 09:18</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.09396</t>
+          <t>1.0959</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,18 USD</t>
         </is>
       </c>
     </row>
@@ -2141,27 +2141,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.28 07:55</t>
+          <t>2023.11.30 03:53</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.09456</t>
+          <t>1.09763</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.30 09:18</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.09396</t>
+          <t>1.0959</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -2183,27 +2183,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.28 07:55</t>
+          <t>2023.11.30 03:53</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.09456</t>
+          <t>1.09764</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.30 09:18</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.09391</t>
+          <t>1.0959</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -2225,22 +2225,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.28 07:55</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.09456</t>
+          <t>1.09747</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.09391</t>
+          <t>1.09676</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2267,22 +2267,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.28 07:55</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.09456</t>
+          <t>1.09743</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.09391</t>
+          <t>1.09676</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2309,27 +2309,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.28 07:55</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.09456</t>
+          <t>1.09742</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.09387</t>
+          <t>1.09678</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -2351,22 +2351,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.28 07:55</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.09459</t>
+          <t>1.09738</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.09387</t>
+          <t>1.09668</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2393,27 +2393,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.28 02:38</t>
+          <t>2023.11.29 16:58</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.09538</t>
+          <t>1.0974</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 17:18</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.09477</t>
+          <t>1.09667</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2435,27 +2435,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.28 02:38</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.0954</t>
+          <t>1.09753</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.09477</t>
+          <t>1.09669</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -2477,27 +2477,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.28 02:38</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.09541</t>
+          <t>1.09753</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.09477</t>
+          <t>1.09669</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -2519,27 +2519,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.28 02:38</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.0954</t>
+          <t>1.09756</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.09477</t>
+          <t>1.09662</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2561,27 +2561,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.28 02:38</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.09541</t>
+          <t>1.09756</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.09477</t>
+          <t>1.09658</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -2603,27 +2603,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.28 02:38</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.09542</t>
+          <t>1.09752</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.09474</t>
+          <t>1.09657</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -2645,27 +2645,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.28 03:07</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.09555</t>
+          <t>1.09751</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.09477</t>
+          <t>1.09657</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -2687,27 +2687,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.28 02:38</t>
+          <t>2023.11.28 15:43</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.09544</t>
+          <t>1.09751</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.09477</t>
+          <t>1.09647</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -2729,27 +2729,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.28 03:07</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.09555</t>
+          <t>1.09816</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.09477</t>
+          <t>1.09646</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -2771,27 +2771,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.28 03:07</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.09555</t>
+          <t>1.09812</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.28 07:56</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.09477</t>
+          <t>1.09646</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -2813,27 +2813,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.094</t>
+          <t>1.09811</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.09309</t>
+          <t>1.09645</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
@@ -2855,27 +2855,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.09403</t>
+          <t>1.0981</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.09312</t>
+          <t>1.09656</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
@@ -2897,27 +2897,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 15:32</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.09402</t>
+          <t>1.09813</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 16:26</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.09309</t>
+          <t>1.09657</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -2939,27 +2939,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.09403</t>
+          <t>1.09843</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.09308</t>
+          <t>1.09765</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -2981,27 +2981,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.24 16:08</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.09401</t>
+          <t>1.09845</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.09308</t>
+          <t>1.09764</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3023,27 +3023,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.0945</t>
+          <t>1.09844</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.09308</t>
+          <t>1.09765</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3065,27 +3065,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.09445</t>
+          <t>1.09844</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.09309</t>
+          <t>1.09764</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3107,27 +3107,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.09445</t>
+          <t>1.09846</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.09309</t>
+          <t>1.09763</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3149,27 +3149,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.29 13:56</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.09445</t>
+          <t>1.09845</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 14:41</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.09311</t>
+          <t>1.09764</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -3191,27 +3191,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.09493</t>
+          <t>1.0991</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.09308</t>
+          <t>1.09708</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -3233,27 +3233,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.27 05:06</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.09444</t>
+          <t>1.09909</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.09311</t>
+          <t>1.09709</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0,13 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -3275,27 +3275,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.09489</t>
+          <t>1.09909</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.09303</t>
+          <t>1.09709</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -3317,27 +3317,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.09489</t>
+          <t>1.0991</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.09303</t>
+          <t>1.09709</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -3359,27 +3359,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.28 17:20</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.09489</t>
+          <t>1.09912</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.27 15:18</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.09303</t>
+          <t>1.09709</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>0,20 USD</t>
         </is>
       </c>
     </row>
@@ -3401,27 +3401,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.0953</t>
+          <t>1.09967</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.09461</t>
+          <t>1.0971</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.09531</t>
+          <t>1.09967</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.09464</t>
+          <t>1.0971</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
@@ -3485,27 +3485,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.09529</t>
+          <t>1.09959</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.09465</t>
+          <t>1.09711</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -3527,27 +3527,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.09527</t>
+          <t>1.09959</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 11:34</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.09465</t>
+          <t>1.09711</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,25 USD</t>
         </is>
       </c>
     </row>
@@ -3569,27 +3569,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.09527</t>
+          <t>1.10141</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.09465</t>
+          <t>1.0998</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -3611,27 +3611,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.09527</t>
+          <t>1.10138</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.27 14:21</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.09461</t>
+          <t>1.0998</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -3653,27 +3653,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.09558</t>
+          <t>1.10138</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.09415</t>
+          <t>1.09979</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -3695,27 +3695,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.09557</t>
+          <t>1.10138</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.09414</t>
+          <t>1.09979</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -3737,27 +3737,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.29 02:33</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.09556</t>
+          <t>1.10139</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.29 05:25</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.09414</t>
+          <t>1.09979</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,16 USD</t>
         </is>
       </c>
     </row>
@@ -3779,27 +3779,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.09559</t>
+          <t>1.09455</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.09415</t>
+          <t>1.09395</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -3821,27 +3821,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.27 08:05</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.09559</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.27 09:52</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.09415</t>
+          <t>1.09396</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -3863,27 +3863,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.09235</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.09135</t>
+          <t>1.09396</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -3905,27 +3905,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.0923</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.09132</t>
+          <t>1.09391</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -3947,27 +3947,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.09231</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.09128</t>
+          <t>1.09391</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -3989,27 +3989,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.09231</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.09135</t>
+          <t>1.09391</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -4031,27 +4031,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.24 13:37</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.09231</t>
+          <t>1.09456</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.24 14:25</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.09139</t>
+          <t>1.09387</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -4073,22 +4073,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.23 16:18</t>
+          <t>2023.11.28 07:55</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.09031</t>
+          <t>1.09459</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09387</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4115,22 +4115,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.23 16:18</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09538</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4157,27 +4157,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.24 02:33</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.09033</t>
+          <t>1.0954</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -4199,22 +4199,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.24 02:33</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.09028</t>
+          <t>1.09541</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4241,27 +4241,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.24 02:33</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.09033</t>
+          <t>1.0954</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.24 03:49</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.08966</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -4283,27 +4283,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.23 03:33</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.0899</t>
+          <t>1.09541</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.08898</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -4325,27 +4325,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.23 03:33</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.09542</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.08899</t>
+          <t>1.09474</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -4367,27 +4367,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.23 03:33</t>
+          <t>2023.11.28 03:07</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.08982</t>
+          <t>1.09555</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.08896</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -4409,27 +4409,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.23 03:46</t>
+          <t>2023.11.28 02:38</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.08998</t>
+          <t>1.09544</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.08896</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -4451,27 +4451,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.23 03:46</t>
+          <t>2023.11.28 03:07</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.08998</t>
+          <t>1.09555</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.23 15:24</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.08896</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -4493,27 +4493,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.28 03:07</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09555</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.28 07:56</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09477</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -4535,27 +4535,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.094</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4577,27 +4577,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09403</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09312</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4619,27 +4619,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.23 07:34</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.0908</t>
+          <t>1.09402</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0,05 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.11.23 10:43</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.09125</t>
+          <t>1.09403</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4703,27 +4703,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023.11.23 10:43</t>
+          <t>2023.11.24 16:08</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.09125</t>
+          <t>1.09401</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.0903</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -4745,27 +4745,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023.11.23 10:43</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.09125</t>
+          <t>1.0945</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2023.11.23 13:39</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1.09029</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -4787,27 +4787,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023.11.23 11:13</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.09173</t>
+          <t>1.09445</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -4829,27 +4829,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2023.11.23 11:14</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.09173</t>
+          <t>1.09445</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09309</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -4871,27 +4871,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2023.11.23 11:13</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1.09173</t>
+          <t>1.09445</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09311</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -4913,27 +4913,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2023.11.23 11:14</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.09172</t>
+          <t>1.09493</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09308</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -4955,27 +4955,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2023.11.23 11:14</t>
+          <t>2023.11.27 05:06</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.09171</t>
+          <t>1.09444</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2023.11.23 13:12</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.09082</t>
+          <t>1.09311</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,13 USD</t>
         </is>
       </c>
     </row>
@@ -4997,27 +4997,27 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2023.11.23 10:03</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1.09164</t>
+          <t>1.09489</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2023.11.23 10:12</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1.09092</t>
+          <t>1.09303</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -5039,27 +5039,27 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2023.11.23 10:03</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1.09164</t>
+          <t>1.09489</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2023.11.23 10:12</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1.09092</t>
+          <t>1.09303</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -5081,27 +5081,27 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2023.11.23 10:03</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.09166</t>
+          <t>1.09489</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023.11.23 10:12</t>
+          <t>2023.11.27 15:18</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1.09092</t>
+          <t>1.09303</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,19 USD</t>
         </is>
       </c>
     </row>
@@ -5123,27 +5123,27 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.09237</t>
+          <t>1.0953</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.09149</t>
+          <t>1.09461</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -5165,27 +5165,27 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.09238</t>
+          <t>1.09531</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1.09144</t>
+          <t>1.09464</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -5207,27 +5207,27 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.0924</t>
+          <t>1.09529</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1.09144</t>
+          <t>1.09465</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -5249,27 +5249,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.09241</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1.09143</t>
+          <t>1.09465</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -5291,27 +5291,27 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2023.11.23 09:31</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.09241</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023.11.23 09:52</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1.09143</t>
+          <t>1.09465</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -5333,27 +5333,27 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.09527</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 14:21</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1.08603</t>
+          <t>1.09461</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -5375,27 +5375,27 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.09558</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1.08605</t>
+          <t>1.09415</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -5417,22 +5417,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.08739</t>
+          <t>1.09557</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1.08601</t>
+          <t>1.09414</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5459,27 +5459,27 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1.08691</t>
+          <t>1.09556</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1.08601</t>
+          <t>1.09414</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -5501,27 +5501,27 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1.08692</t>
+          <t>1.09559</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1.08605</t>
+          <t>1.09415</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -5543,27 +5543,27 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.27 08:05</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1.08692</t>
+          <t>1.09559</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.27 09:52</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>1.08605</t>
+          <t>1.09415</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -5585,27 +5585,27 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1.08742</t>
+          <t>1.09235</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1.08598</t>
+          <t>1.09135</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -5627,27 +5627,27 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1.08741</t>
+          <t>1.0923</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023.11.22 16:06</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1.086</t>
+          <t>1.09132</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0,14 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -5669,27 +5669,27 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1.08838</t>
+          <t>1.09231</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1.08766</t>
+          <t>1.09128</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -5711,27 +5711,27 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1.08841</t>
+          <t>1.09231</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1.08759</t>
+          <t>1.09135</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -5753,27 +5753,27 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.24 13:37</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1.08843</t>
+          <t>1.09231</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.24 14:25</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1.08759</t>
+          <t>1.09139</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -5795,27 +5795,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.23 16:18</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1.08844</t>
+          <t>1.09031</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1.08763</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -5837,27 +5837,27 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2023.11.22 15:46</t>
+          <t>2023.11.23 16:18</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>1.08844</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1.08759</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -5879,27 +5879,27 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.24 02:33</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1.08852</t>
+          <t>1.09033</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1.08766</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -5921,27 +5921,27 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.24 02:33</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.09028</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1.08765</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
@@ -5963,27 +5963,27 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.24 02:33</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.09033</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.24 03:49</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1.08764</t>
+          <t>1.08966</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -6005,22 +6005,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.23 03:33</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.0899</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1.08762</t>
+          <t>1.08898</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6047,27 +6047,27 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2023.11.22 09:50</t>
+          <t>2023.11.23 03:33</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1.08856</t>
+          <t>1.08983</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023.11.22 15:16</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1.08761</t>
+          <t>1.08899</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -6089,27 +6089,27 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.23 03:33</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1.09038</t>
+          <t>1.08982</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023.11.22 15:05</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1.08863</t>
+          <t>1.08896</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0,18 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -6131,27 +6131,27 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.23 03:46</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1.09038</t>
+          <t>1.08998</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>1.08866</t>
+          <t>1.08896</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -6173,27 +6173,27 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.23 03:46</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1.09039</t>
+          <t>1.08998</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.23 15:24</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1.08868</t>
+          <t>1.08896</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -6215,27 +6215,27 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2023.11.22 10:41</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1.09039</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1.08868</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -6257,27 +6257,27 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1.09139</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1.09046</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -6299,27 +6299,27 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1.0914</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1.0905</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -6341,27 +6341,27 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.23 07:34</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1.0914</t>
+          <t>1.0908</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1.09047</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,05 USD</t>
         </is>
       </c>
     </row>
@@ -6383,27 +6383,27 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.23 10:43</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1.0914</t>
+          <t>1.09125</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1.09047</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -6425,22 +6425,22 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.23 10:43</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1.09151</t>
+          <t>1.09125</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1.09052</t>
+          <t>1.0903</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6467,27 +6467,27 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2023.11.22 14:20</t>
+          <t>2023.11.23 10:43</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1.09142</t>
+          <t>1.09125</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:39</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1.09052</t>
+          <t>1.09029</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -6509,27 +6509,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.23 11:13</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1.09151</t>
+          <t>1.09173</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1.09052</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -6551,27 +6551,27 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.23 11:14</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1.09152</t>
+          <t>1.09173</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>1.0905</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -6593,27 +6593,27 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.23 11:13</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1.09163</t>
+          <t>1.09173</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1.09048</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0,12 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -6635,27 +6635,27 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2023.11.22 14:27</t>
+          <t>2023.11.23 11:14</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1.09164</t>
+          <t>1.09172</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023.11.22 14:38</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1.0905</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -6677,27 +6677,27 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 11:14</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1.08963</t>
+          <t>1.09171</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 13:12</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>1.0886</t>
+          <t>1.09082</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -6719,27 +6719,27 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 10:03</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1.08963</t>
+          <t>1.09164</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 10:12</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1.08859</t>
+          <t>1.09092</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -6761,27 +6761,27 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 10:03</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1.08964</t>
+          <t>1.09164</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 10:12</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>1.08859</t>
+          <t>1.09092</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -6803,27 +6803,27 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 10:03</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1.08964</t>
+          <t>1.09166</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 10:12</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>1.08852</t>
+          <t>1.09092</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -6845,27 +6845,27 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1.08964</t>
+          <t>1.09237</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023.11.22 09:51</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1.08853</t>
+          <t>1.09149</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -6887,27 +6887,27 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09238</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1.0902</t>
+          <t>1.09144</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -6929,27 +6929,27 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.0924</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1.09021</t>
+          <t>1.09144</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -6971,27 +6971,27 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09241</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>1.09021</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -7013,27 +7013,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.23 09:31</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.09241</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.23 09:52</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1.09017</t>
+          <t>1.09143</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -7055,27 +7055,27 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2023.11.22 08:35</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1.091</t>
+          <t>1.08691</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023.11.22 09:29</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1.09021</t>
+          <t>1.08603</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7107,17 +7107,17 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1.08985</t>
+          <t>1.08605</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>-0,29 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7139,27 +7139,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2023.11.17 12:06</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>1.08689</t>
+          <t>1.08739</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>1.08986</t>
+          <t>1.08601</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>-0,30 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -7186,22 +7186,22 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>1.08686</t>
+          <t>1.08691</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2023.11.22 07:34</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>1.0898</t>
+          <t>1.08601</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>-0,29 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7223,27 +7223,27 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1.09087</t>
+          <t>1.08692</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>1.08992</t>
+          <t>1.08605</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7265,27 +7265,27 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.17 12:06</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>1.0909</t>
+          <t>1.08692</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>1.08993</t>
+          <t>1.08605</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7307,27 +7307,27 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1.09088</t>
+          <t>1.08742</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.08598</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -7349,27 +7349,27 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1.09088</t>
+          <t>1.08741</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 16:06</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.086</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,14 USD</t>
         </is>
       </c>
     </row>
@@ -7391,27 +7391,27 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1.09089</t>
+          <t>1.08838</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.08766</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -7433,27 +7433,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1.09089</t>
+          <t>1.08841</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.08759</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -7475,27 +7475,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>1.09156</t>
+          <t>1.08843</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.08759</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -7517,27 +7517,27 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2023.11.20 02:25</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1.0909</t>
+          <t>1.08844</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>1.08983</t>
+          <t>1.08763</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -7559,27 +7559,27 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 15:46</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>1.09156</t>
+          <t>1.08844</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1.08982</t>
+          <t>1.08759</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7601,27 +7601,27 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1.09156</t>
+          <t>1.08852</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1.08982</t>
+          <t>1.08766</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7643,27 +7643,27 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2023.11.20 03:26</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08856</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1.08984</t>
+          <t>1.08765</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7685,27 +7685,27 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08856</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2023.11.22 07:33</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1.08984</t>
+          <t>1.08764</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7727,27 +7727,27 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2023.11.20 03:25</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08856</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2023.11.22 02:29</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1.09118</t>
+          <t>1.08762</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0,04 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
@@ -7769,27 +7769,27 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2023.11.20 03:26</t>
+          <t>2023.11.22 09:50</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>1.09157</t>
+          <t>1.08856</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2023.11.22 02:29</t>
+          <t>2023.11.22 15:16</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1.09117</t>
+          <t>1.08761</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0,04 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -7811,25 +7811,1747 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>2023.11.22 10:41</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1.09038</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:05</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1.08863</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>0,18 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:41</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1.09038</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>1.08866</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:41</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1.09039</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>1.08868</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:41</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1.09039</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1.08868</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1.09139</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>1.09046</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1.09047</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>1.09047</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1.09151</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1.09052</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:20</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1.09142</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>1.09052</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>0,09 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1.09151</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>1.09052</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1.09152</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1.09163</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>1.09048</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>0,12 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:27</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1.09164</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:38</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1.08963</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1.0886</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1.08963</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>1.08859</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1.08964</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>1.08859</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1.08964</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>1.08852</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1.08964</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:51</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>1.08853</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>1.0902</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>1.09021</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>1.09021</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>1.09017</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:35</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1.091</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:29</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>1.09021</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>0,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>1.08691</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>1.08985</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>-0,29 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1.08689</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>1.08986</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>-0,30 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023.11.17 12:06</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1.08686</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:34</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>1.0898</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-0,29 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1.09087</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1.08992</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>1.08993</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>0,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1.09088</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1.09088</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1.09089</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1.09089</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1.09156</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023.11.20 02:25</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>1.08983</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>0,11 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1.09156</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>1.08982</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>1.09156</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>1.08982</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>2023.11.20 03:26</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>1.08984</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:33</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>1.08984</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>0,17 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:25</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:29</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>1.09118</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>0,04 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:26</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1.09157</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:29</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>1.09117</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>0,04 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023.11.20 03:26</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
         <is>
           <t>1.09148</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>2023.11.22 02:29</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>1.09117</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>0,03 USD</t>
         </is>
